--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Instructions for Use</t>
+  </si>
+  <si>
+    <t>Nathan Kemp</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>This is a test</t>
+  </si>
+  <si>
+    <t>And only a test.</t>
   </si>
 </sst>
 </file>
@@ -290,6 +302,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,60 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +648,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,289 +672,301 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="25" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -93,7 +93,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -105,19 +105,24 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -156,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -171,7 +176,9 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -196,9 +203,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -208,12 +213,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -223,9 +224,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -256,45 +255,31 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -331,29 +316,70 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -372,21 +398,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -398,102 +409,102 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="20" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1823,274 +1834,276 @@
       <c r="C3" s="14">
         <v>42054.284722222219</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
+      <c r="D3" s="14">
+        <v>42054.395833333336</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -2100,11 +2113,11 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -2114,11 +2127,11 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2128,11 +2141,11 @@
       <c r="L24" s="24"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="15"/>
       <c r="F25" t="s" s="25">
         <v>11</v>
       </c>
@@ -2144,11 +2157,11 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -2158,11 +2171,11 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="28"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -2172,11 +2185,11 @@
       <c r="L27" s="30"/>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -2186,11 +2199,11 @@
       <c r="L28" s="30"/>
     </row>
     <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -2200,11 +2213,11 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" ht="17" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -2214,11 +2227,11 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" ht="17" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2228,11 +2241,11 @@
       <c r="L31" s="30"/>
     </row>
     <row r="32" ht="17" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2242,11 +2255,11 @@
       <c r="L32" s="30"/>
     </row>
     <row r="33" ht="17" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="31"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -50,7 +58,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="20"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
@@ -84,16 +92,21 @@
       <t>Project when you are done. If there is no check-in time listed, others who need to use it will assume it is still out!</t>
     </r>
   </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>3:10PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[h]&quot;h&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -101,16 +114,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -135,7 +138,7 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -400,112 +403,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,25 +500,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff9cc2e5"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF9CC2E5"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -725,7 +770,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -734,7 +779,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -743,7 +788,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -752,7 +797,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -761,7 +806,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -770,7 +815,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -882,8 +927,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -891,14 +936,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -917,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,7 +970,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -953,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,9 +1219,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1192,7 +1243,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1211,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,9 +1509,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1473,7 +1530,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1492,7 +1549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1522,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1678,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1730,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1743,530 +1800,537 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="1" customWidth="1"/>
-    <col min="13" max="256" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
+    <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" t="s" s="5">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" t="s" s="9">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="12">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="7">
         <v>0.125</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>42054.284722222219</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="8">
         <v>42054.395833333336</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="15"/>
-      <c r="F25" t="s" s="25">
+      <c r="E3" s="9"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" ht="17" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" ht="17" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" ht="17" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" ht="17" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2275,7 +2339,7 @@
     <mergeCell ref="F1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -104,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[h]&quot;h&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -407,24 +407,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -491,6 +481,17 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1822,515 +1823,517 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="32" customWidth="1"/>
     <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="31">
         <v>0.125</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="31">
         <v>42054.284722222219</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="31">
         <v>42054.395833333336</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="D4" s="31">
+        <v>0.8125</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="13" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2339,7 +2342,7 @@
     <mergeCell ref="F1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24860" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -98,13 +98,19 @@
   <si>
     <t>3:10PM</t>
   </si>
+  <si>
+    <t>Caden Barton</t>
+  </si>
+  <si>
+    <t>10:20PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -419,6 +425,17 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -481,24 +498,13 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1823,367 +1829,373 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="32" customWidth="1"/>
-    <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="11" customWidth="1"/>
+    <col min="5" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="17" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="10">
         <v>0.125</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="10">
         <v>42054.284722222219</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="10">
         <v>42054.395833333336</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="10">
         <v>0.8125</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" ht="17" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" ht="17" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" ht="17" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" ht="17" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2193,11 +2205,11 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+    <row r="24" spans="1:12" ht="17" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2207,133 +2219,133 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+    <row r="25" spans="1:12" ht="17" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="17" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="17" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="17" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="17" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" ht="17" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" ht="17" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="17" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="15"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2342,9 +2354,14 @@
     <mergeCell ref="F1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>10:20PM</t>
+  </si>
+  <si>
+    <t>11:00pm</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1832,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1943,7 +1946,9 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\The Deathstar\Documents\GitHub\Whitebox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24860" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24855" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -106,6 +111,18 @@
   </si>
   <si>
     <t>11:00pm</t>
+  </si>
+  <si>
+    <t>Tadas Tsibulskis</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>8:00pm (2/22/15)</t>
+  </si>
+  <si>
+    <t>10:00pm</t>
   </si>
 </sst>
 </file>
@@ -1832,19 +1849,19 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="11" customWidth="1"/>
-    <col min="5" max="256" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="11" customWidth="1"/>
+    <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1885,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="32"/>
     </row>
-    <row r="2" spans="1:12" ht="17" customHeight="1">
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1909,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1">
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1931,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +1953,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1958,11 +1975,19 @@
       <c r="K5" s="25"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
@@ -1972,7 +1997,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1986,7 +2011,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2000,7 +2025,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2014,7 +2039,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2028,7 +2053,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2042,7 +2067,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2056,7 +2081,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="17" customHeight="1">
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2070,7 +2095,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" ht="17" customHeight="1">
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2084,7 +2109,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1">
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2098,7 +2123,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="17" customHeight="1">
+    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2112,7 +2137,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:12" ht="17" customHeight="1">
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2126,7 +2151,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1">
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2140,7 +2165,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:12" ht="17" customHeight="1">
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2154,7 +2179,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" ht="17" customHeight="1">
+    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2168,7 +2193,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:12" ht="17" customHeight="1">
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2182,7 +2207,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:12" ht="17" customHeight="1">
+    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2196,7 +2221,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="29"/>
     </row>
-    <row r="23" spans="1:12" ht="17" customHeight="1">
+    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2210,7 +2235,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="17" customHeight="1">
+    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2224,7 +2249,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="17" customHeight="1">
+    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2240,7 +2265,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="17" customHeight="1">
+    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2254,7 +2279,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" ht="17" customHeight="1">
+    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2268,7 +2293,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:12" ht="17" customHeight="1">
+    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2282,7 +2307,7 @@
       <c r="K28" s="16"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="17" customHeight="1">
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2296,7 +2321,7 @@
       <c r="K29" s="16"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:12" ht="17" customHeight="1">
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2310,7 +2335,7 @@
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="1:12" ht="17" customHeight="1">
+    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2324,7 +2349,7 @@
       <c r="K31" s="16"/>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:12" ht="17" customHeight="1">
+    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2338,7 +2363,7 @@
       <c r="K32" s="16"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="1:12" ht="17" customHeight="1">
+    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\The Deathstar\Documents\GitHub\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>10:00pm</t>
+  </si>
+  <si>
+    <t>11:53pm</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1852,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1998,9 +2001,15 @@
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="3"/>
       <c r="F7" s="24"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>11:53pm</t>
+  </si>
+  <si>
+    <t>12:00am</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2013,9 @@
       <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\The Deathstar\Documents\GitHub\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>12:00am</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>12:40pm</t>
+  </si>
+  <si>
+    <t>1:40pm</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1864,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2026,10 +2035,18 @@
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\The Deathstar\Documents\GitHub\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>1:40pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1867,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2057,9 +2060,15 @@
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="24"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>2:00pm</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1870,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2072,9 @@
       <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\The Deathstar\Documents\GitHub\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>5:00pm</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>9:00pm</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1876,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2085,10 +2091,18 @@
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\The Deathstar\Documents\GitHub\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Whitebox\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24855" windowHeight="15600"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="24855" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>9:00pm</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>7:00pm</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1882,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2113,10 +2119,18 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Whitebox\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>7:00pm</t>
+  </si>
+  <si>
+    <t>12:30am</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1885,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2141,10 +2144,18 @@
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -158,7 +158,7 @@
     <t>7:00pm</t>
   </si>
   <si>
-    <t>12:30am</t>
+    <t>11:15pm</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="24855" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +154,9 @@
   </si>
   <si>
     <t>11:15pm</t>
+  </si>
+  <si>
+    <t>11:55pm</t>
   </si>
 </sst>
 </file>
@@ -1888,16 +1886,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="11" customWidth="1"/>
-    <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="11" customWidth="1"/>
+    <col min="5" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1919,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="32"/>
     </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1945,7 +1943,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +1965,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +1987,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +2009,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2031,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2053,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2075,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2097,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -2121,7 +2119,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2141,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
@@ -2165,10 +2163,16 @@
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="1:12" ht="17" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="24"/>
@@ -2179,7 +2183,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2193,7 +2197,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2207,7 +2211,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2221,7 +2225,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="17" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2235,7 +2239,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="17" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2249,7 +2253,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="17" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2263,7 +2267,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="17" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2277,7 +2281,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="17" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2291,7 +2295,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="17" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2305,7 +2309,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="29"/>
     </row>
-    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="17" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2319,7 +2323,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="17" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2333,7 +2337,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="17" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2349,7 +2353,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="17" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2363,7 +2367,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="17" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2377,7 +2381,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="17" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2391,7 +2395,7 @@
       <c r="K28" s="16"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="17" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2405,7 +2409,7 @@
       <c r="K29" s="16"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="17" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2419,7 +2423,7 @@
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="17" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2433,7 +2437,7 @@
       <c r="K31" s="16"/>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="17" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2447,7 +2451,7 @@
       <c r="K32" s="16"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="17" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>11:55pm</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1886,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2168,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>33</v>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t>3:45am</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1889,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2176,7 +2179,9 @@
       <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Whitebox\Whitebox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15600"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="24825" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +168,15 @@
   </si>
   <si>
     <t>3:45am</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Alexander McGlade</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
   </si>
 </sst>
 </file>
@@ -473,7 +487,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -558,6 +572,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1889,19 +1906,19 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="11" customWidth="1"/>
-    <col min="5" max="256" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="11" customWidth="1"/>
+    <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1942,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="32"/>
     </row>
-    <row r="2" spans="1:12" ht="17" customHeight="1">
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1966,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1">
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1971,7 +1988,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2010,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +2032,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2054,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2076,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2098,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -2103,7 +2120,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2142,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2147,7 +2164,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2186,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="17" customHeight="1">
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -2191,11 +2208,19 @@
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" ht="17" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
@@ -2205,7 +2230,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1">
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2219,7 +2244,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="17" customHeight="1">
+    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2233,7 +2258,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:12" ht="17" customHeight="1">
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2247,7 +2272,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="17" customHeight="1">
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2261,7 +2286,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:12" ht="17" customHeight="1">
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2275,7 +2300,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" ht="17" customHeight="1">
+    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2289,7 +2314,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:12" ht="17" customHeight="1">
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2303,7 +2328,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:12" ht="17" customHeight="1">
+    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2317,7 +2342,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="29"/>
     </row>
-    <row r="23" spans="1:12" ht="17" customHeight="1">
+    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2331,7 +2356,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="17" customHeight="1">
+    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2345,7 +2370,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="17" customHeight="1">
+    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2361,7 +2386,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="17" customHeight="1">
+    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2375,7 +2400,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" ht="17" customHeight="1">
+    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2389,7 +2414,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:12" ht="17" customHeight="1">
+    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2403,7 +2428,7 @@
       <c r="K28" s="16"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="17" customHeight="1">
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2417,7 +2442,7 @@
       <c r="K29" s="16"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:12" ht="17" customHeight="1">
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2431,7 +2456,7 @@
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="1:12" ht="17" customHeight="1">
+    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2445,7 +2470,7 @@
       <c r="K31" s="16"/>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:12" ht="17" customHeight="1">
+    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2459,7 +2484,7 @@
       <c r="K32" s="16"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="1:12" ht="17" customHeight="1">
+    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="24825" windowHeight="15600"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="24825" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>Alexander McGlade</t>
   </si>
   <si>
-    <t>1:00pm</t>
+    <t>11:40pm</t>
   </si>
 </sst>
 </file>
@@ -510,6 +510,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -572,9 +575,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1932,15 +1932,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1956,15 +1956,15 @@
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1980,13 +1980,13 @@
         <v>42054.395833333336</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2002,13 +2002,13 @@
         <v>0.8125</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2024,13 +2024,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -2046,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2068,13 +2068,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2090,13 +2090,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2112,13 +2112,13 @@
         <v>27</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2134,13 +2134,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -2156,13 +2156,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -2178,13 +2178,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -2200,13 +2200,13 @@
         <v>35</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -2215,20 +2215,20 @@
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="12">
         <v>0.43055555555555558</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -2236,13 +2236,13 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -2250,13 +2250,13 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -2264,13 +2264,13 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -2278,13 +2278,13 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -2292,13 +2292,13 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2306,13 +2306,13 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -2320,13 +2320,13 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -2334,13 +2334,13 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -2376,15 +2376,15 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -2392,13 +2392,13 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -2406,13 +2406,13 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -2420,13 +2420,13 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2434,13 +2434,13 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
@@ -2448,13 +2448,13 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
@@ -2462,13 +2462,13 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -2476,13 +2476,13 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
@@ -2490,13 +2490,13 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Whitebox\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>11:40pm</t>
+  </si>
+  <si>
+    <t>11:45am</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1909,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2231,9 +2234,15 @@
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="3"/>
       <c r="F15" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>11:45am</t>
+  </si>
+  <si>
+    <t>12:30pm</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1912,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2246,9 @@
       <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>12:30pm</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>1:20pm</t>
+  </si>
+  <si>
+    <t>1:35pm</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1921,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2259,10 +2268,18 @@
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0663557\Desktop\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>1:35pm</t>
+  </si>
+  <si>
+    <t>Breanna Kilpack</t>
+  </si>
+  <si>
+    <t>2:40pm</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1927,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2290,9 +2296,15 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="3"/>
       <c r="F17" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>2:40pm</t>
+  </si>
+  <si>
+    <t>1hr 20 m</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
   </si>
 </sst>
 </file>
@@ -2300,12 +2306,14 @@
         <v>44</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>4:00pm</t>
+  </si>
+  <si>
+    <t>4:30pm</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1936,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2324,9 +2327,15 @@
       <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>4:30pm</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2339,9 @@
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0663557\Desktop\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0460100\Desktop\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>6:00pm</t>
+  </si>
+  <si>
+    <t>6:16pm</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1942,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2352,9 +2355,15 @@
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>6:00pm</t>
+  </si>
+  <si>
+    <t>10:30pm</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1942,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2352,9 +2355,15 @@
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="25"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>10:30pm</t>
+  </si>
+  <si>
+    <t>12:10pm</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2367,9 @@
       <c r="C19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0663557\Desktop\Whitebox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Whitebox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="24825" windowHeight="15600"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="24825" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>12:10pm</t>
+  </si>
+  <si>
+    <t>4:48am</t>
+  </si>
+  <si>
+    <t>7:48am</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1951,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2380,10 +2386,18 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="24825" windowHeight="15600"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="24825" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     <t>4:48am</t>
   </si>
   <si>
-    <t>7:48am</t>
+    <t>6:48am</t>
   </si>
 </sst>
 </file>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Whitebox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="24825" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -222,6 +217,12 @@
   </si>
   <si>
     <t>6:48am</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>11:50am</t>
   </si>
 </sst>
 </file>
@@ -1951,19 +1952,19 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="11" customWidth="1"/>
-    <col min="5" max="256" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="11" customWidth="1"/>
+    <col min="5" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1988,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2012,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2034,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2078,7 @@
       <c r="K5" s="26"/>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2122,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -2143,7 +2144,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -2165,7 +2166,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -2187,7 +2188,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2209,7 +2210,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
@@ -2231,7 +2232,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -2275,7 +2276,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -2319,7 +2320,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
@@ -2341,7 +2342,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
@@ -2363,7 +2364,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
@@ -2385,7 +2386,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
@@ -2407,10 +2408,16 @@
       <c r="K20" s="26"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+    <row r="21" spans="1:12" ht="17" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="3"/>
       <c r="F21" s="25"/>
@@ -2421,7 +2428,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="17" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2435,7 +2442,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="17" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2449,7 +2456,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="17" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2463,7 +2470,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="17" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2479,7 +2486,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="17" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2493,7 +2500,7 @@
       <c r="K26" s="17"/>
       <c r="L26" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="17" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2507,7 +2514,7 @@
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="17" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2521,7 +2528,7 @@
       <c r="K28" s="17"/>
       <c r="L28" s="18"/>
     </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="17" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2535,7 +2542,7 @@
       <c r="K29" s="17"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="17" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2549,7 +2556,7 @@
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
     </row>
-    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="17" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2563,7 +2570,7 @@
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="17" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2577,7 +2584,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="18"/>
     </row>
-    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="17" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>

--- a/Project Checkout Sheet.xlsx
+++ b/Project Checkout Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -2418,7 +2418,9 @@
       <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
